--- a/Bus.Web/Content/template/TemplateUsersListReport.xlsx
+++ b/Bus.Web/Content/template/TemplateUsersListReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -24,14 +24,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>性别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -40,10 +32,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>公司名/楼号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>上班时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -52,7 +40,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>所乘线路</t>
+    <t>用户列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路信息</t>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住地详细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地详细</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -60,11 +67,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作地</t>
+    <t>1月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,6 +112,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,15 +150,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -153,15 +161,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,25 +471,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:15" ht="20.25">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -494,62 +507,77 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bus.Web/Content/template/TemplateUsersListReport.xlsx
+++ b/Bus.Web/Content/template/TemplateUsersListReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>3月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始坐标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束坐标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,13 +200,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,36 +524,49 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.42578125" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" ht="20.25">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:24">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -523,61 +578,97 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:24" s="8" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="W3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="X3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
